--- a/FACE_CODING/face_coding_app v1.5.1/Result.xlsx
+++ b/FACE_CODING/face_coding_app v1.5.1/Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,6 +1105,20 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-06-19 08:52:33</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
